--- a/Question_Set2/Software skills/Kubernets.xlsx
+++ b/Question_Set2/Software skills/Kubernets.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You have a single Kubernetes cluster. Your team wants to isolate your deployments into dev, test, and staging. You also need to minimize the cost of the solution.How can you accomplish that?', 'ques_type': 2, 'options': ['Create a namespace for each.', 'Put a name prefix to all the objects of each environment for better tracking.', 'Create a separate cluster for each.', 'Create an Environment object definition.'], 'score': 'Create a namespace for each.'}, {'title': 'You have a Kubernetes cluster where you need to deploy REST API using YAML manifest. You prepared a Docker container image that will run the API.Which Kubernetes resource do you need to create to run the container image?', 'ques_type': 2, 'options': ['DaemonSet', 'StatefulSet', 'Deployment', 'DeploymentSet'], 'score': 'Deployment'}, {'title': 'You want to deploy an application in the Kubernetes cluster. It has the following requirements: ●   Pods running the application need to have static identities.●   Pods should intercommunicate directly (using IP or hostnames) without any load balancing.Which resources should you create?', 'ques_type': 2, 'options': ['Create a Deployment + Discovery Service.', 'Create a Deployment + DNS Service.', 'Create a StatefulSet + Peer Service.', 'Create a StatefulSet + Headless Service.'], 'score': 'Create a StatefulSet + Headless Service.'}, {'title': 'Your security team wants to create a cluster-level super admin user, as well as namespace-specific admins.What is the best way to create these rules?', 'ques_type': 2, 'options': ['Create a ClusterRole and ClusterRoleBinding for the super admin and Role/RoleBinding for namespace-specific admins.', 'Create an AdminRole and AdminRoleBinding for the super admin and NamespaceRole/RoleBinding for namespace-specific admins.', 'Create an AccessPolicy to define user-access levels.', 'Create a NetworkPolicy to define user-access levels.'], 'score': 'Create a ClusterRole and ClusterRoleBinding for the super admin and Role/RoleBinding for namespace-specific admins.'}]</t>
+    <t>questions = [
+    {
+        "title": "You have a single Kubernetes cluster. Your team wants to isolate your deployments into dev, test, and staging. You also need to minimize the cost of the solution.How can you accomplish that?",
+        "ques_type": 2,
+        "options": [
+            "Create a namespace for each.",
+            "Put a name prefix to all the objects of each environment for better tracking.",
+            "Create a separate cluster for each.",
+            "Create an Environment object definition."
+        ],
+        "score": "Create a namespace for each."
+    },
+    {
+        "title": "You have a Kubernetes cluster where you need to deploy REST API using YAML manifest. You prepared a Docker container image that will run the API.Which Kubernetes resource do you need to create to run the container image?",
+        "ques_type": 2,
+        "options": [
+            "DaemonSet",
+            "StatefulSet",
+            "Deployment",
+            "DeploymentSet"
+        ],
+        "score": "Deployment"
+    },
+    {
+        "title": "You want to deploy an application in the Kubernetes cluster. It has the following requirements: \u25cf   Pods running the application need to have static identities.\u25cf   Pods should intercommunicate directly (using IP or hostnames) without any load balancing.Which resources should you create?",
+        "ques_type": 2,
+        "options": [
+            "Create a Deployment + Discovery Service.",
+            "Create a Deployment + DNS Service.",
+            "Create a StatefulSet + Peer Service.",
+            "Create a StatefulSet + Headless Service."
+        ],
+        "score": "Create a StatefulSet + Headless Service."
+    },
+    {
+        "title": "Your security team wants to create a cluster-level super admin user, as well as namespace-specific admins.What is the best way to create these rules?",
+        "ques_type": 2,
+        "options": [
+            "Create a ClusterRole and ClusterRoleBinding for the super admin and Role/RoleBinding for namespace-specific admins.",
+            "Create an AdminRole and AdminRoleBinding for the super admin and NamespaceRole/RoleBinding for namespace-specific admins.",
+            "Create an AccessPolicy to define user-access levels.",
+            "Create a NetworkPolicy to define user-access levels."
+        ],
+        "score": "Create a ClusterRole and ClusterRoleBinding for the super admin and Role/RoleBinding for namespace-specific admins."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
